--- a/raw_data/20200818_saline/20200818_Sensor3_Test_36.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_36.xlsx
@@ -1,795 +1,1211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C05C542-8084-402C-BC82-E03E44E5A19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>32052.959592</v>
+        <v>32052.959591999999</v>
       </c>
       <c r="B2" s="1">
-        <v>8.903600</v>
+        <v>8.9036000000000008</v>
       </c>
       <c r="C2" s="1">
-        <v>1150.710000</v>
+        <v>1150.71</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.164000</v>
+        <v>-261.16399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>32063.693020</v>
+        <v>32063.693019999999</v>
       </c>
       <c r="G2" s="1">
-        <v>8.906581</v>
+        <v>8.9065809999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>1172.540000</v>
+        <v>1172.54</v>
       </c>
       <c r="I2" s="1">
-        <v>-220.022000</v>
+        <v>-220.02199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>32074.115948</v>
+        <v>32074.115947999999</v>
       </c>
       <c r="L2" s="1">
-        <v>8.909477</v>
+        <v>8.9094770000000008</v>
       </c>
       <c r="M2" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.647000</v>
+        <v>-152.64699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>32084.581040</v>
+        <v>32084.581040000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.912384</v>
+        <v>8.9123839999999994</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.730000</v>
+        <v>1208.73</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.156000</v>
+        <v>-130.15600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>32095.124032</v>
       </c>
       <c r="V2" s="1">
-        <v>8.915312</v>
+        <v>8.9153120000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.716000</v>
+        <v>-108.71599999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>32105.887682</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.918302</v>
+        <v>8.9183020000000006</v>
       </c>
       <c r="AB2" s="1">
-        <v>1223.400000</v>
+        <v>1223.4000000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.220700</v>
+        <v>-91.220699999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>32116.459412</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.921239</v>
+        <v>8.9212389999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1228.000000</v>
+        <v>1228</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.501600</v>
+        <v>-86.501599999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>32126.980583</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.924161</v>
+        <v>8.9241609999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.638600</v>
+        <v>-89.638599999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>32137.267081</v>
+        <v>32137.267081000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.927019</v>
+        <v>8.9270189999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>32147.868423</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.929963</v>
+        <v>8.9299630000000008</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.874000</v>
+        <v>-120.874</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>32158.663500</v>
+        <v>32158.663499999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.932962</v>
+        <v>8.9329619999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.485000</v>
+        <v>-138.48500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>32169.310126</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.935919</v>
+        <v>8.9359190000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1300.370000</v>
+        <v>1300.3699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.203000</v>
+        <v>-221.203</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>32180.238976</v>
+        <v>32180.238976000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>8.938955</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.460000</v>
+        <v>1369.46</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.671000</v>
+        <v>-359.67099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>32191.328568</v>
+        <v>32191.328568000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.942036</v>
+        <v>8.9420359999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.670000</v>
+        <v>1483.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-585.667000</v>
+        <v>-585.66700000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>32201.681029</v>
+        <v>32201.681028999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.944911</v>
+        <v>8.9449109999999994</v>
       </c>
       <c r="BU2" s="1">
-        <v>1615.860000</v>
+        <v>1615.86</v>
       </c>
       <c r="BV2" s="1">
-        <v>-841.023000</v>
+        <v>-841.02300000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>32212.343585</v>
+        <v>32212.343584999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.947873</v>
+        <v>8.9478729999999995</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1768.510000</v>
+        <v>1768.51</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1120.450000</v>
+        <v>-1120.45</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>32223.265965</v>
+        <v>32223.265964999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.950907</v>
+        <v>8.9509070000000008</v>
       </c>
       <c r="CE2" s="1">
-        <v>2190.790000</v>
+        <v>2190.79</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1798.460000</v>
+        <v>-1798.46</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>32053.678791</v>
+        <v>32053.678790999998</v>
       </c>
       <c r="B3" s="1">
-        <v>8.903800</v>
+        <v>8.9038000000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.520000</v>
+        <v>1150.52</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.233000</v>
+        <v>-261.233</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>32064.030794</v>
+        <v>32064.030793999998</v>
       </c>
       <c r="G3" s="1">
-        <v>8.906675</v>
+        <v>8.9066749999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.100000</v>
+        <v>1172.0999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.783000</v>
+        <v>-219.78299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>32074.462653</v>
+        <v>32074.462652999999</v>
       </c>
       <c r="L3" s="1">
         <v>8.909573</v>
       </c>
       <c r="M3" s="1">
-        <v>1200.690000</v>
+        <v>1200.69</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.800000</v>
+        <v>-152.80000000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>32084.944607</v>
+        <v>32084.944607000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.912485</v>
+        <v>8.9124850000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.167000</v>
+        <v>-130.167</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>32095.805504</v>
@@ -798,2144 +1214,2144 @@
         <v>8.915502</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.759000</v>
+        <v>-108.759</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>32106.301843</v>
+        <v>32106.301843000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.918417</v>
+        <v>8.9184169999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.131900</v>
+        <v>-91.131900000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>32116.858228</v>
+        <v>32116.858228000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.921350</v>
+        <v>8.9213500000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1227.960000</v>
+        <v>1227.96</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.496900</v>
+        <v>-86.496899999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>32127.332715</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.924259</v>
+        <v>8.9242589999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.666900</v>
+        <v>-89.666899999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>32137.634120</v>
+        <v>32137.634119999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.927121</v>
+        <v>8.9271209999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.508000</v>
+        <v>-101.508</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>32148.265401</v>
+        <v>32148.265401000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.930074</v>
+        <v>8.9300739999999994</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.891000</v>
+        <v>-120.89100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>32159.085133</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.933079</v>
+        <v>8.9330789999999993</v>
       </c>
       <c r="BA3" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.441000</v>
+        <v>-138.441</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>32169.716846</v>
+        <v>32169.716845999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.936032</v>
+        <v>8.9360320000000009</v>
       </c>
       <c r="BF3" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.221000</v>
+        <v>-221.221</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>32180.346609</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.938985</v>
+        <v>8.9389850000000006</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.570000</v>
+        <v>1369.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.704000</v>
+        <v>-359.70400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>32191.761536</v>
+        <v>32191.761536000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.942156</v>
+        <v>8.9421560000000007</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-585.740000</v>
+        <v>-585.74</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>32202.122468</v>
+        <v>32202.122468000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.945034</v>
+        <v>8.9450339999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>1615.970000</v>
+        <v>1615.97</v>
       </c>
       <c r="BV3" s="1">
-        <v>-841.129000</v>
+        <v>-841.12900000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>32212.807287</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.948002</v>
+        <v>8.9480020000000007</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1768.450000</v>
+        <v>1768.45</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1120.360000</v>
+        <v>-1120.3599999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>32223.859641</v>
+        <v>32223.859640999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.951072</v>
+        <v>8.9510719999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.110000</v>
+        <v>2188.11</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1799.240000</v>
+        <v>-1799.24</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>32054.025000</v>
+        <v>32054.025000000001</v>
       </c>
       <c r="B4" s="1">
-        <v>8.903896</v>
+        <v>8.9038959999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1150.340000</v>
+        <v>1150.3399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.226000</v>
+        <v>-261.226</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>32064.378490</v>
+        <v>32064.378489999999</v>
       </c>
       <c r="G4" s="1">
-        <v>8.906772</v>
+        <v>8.9067720000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1172.250000</v>
+        <v>1172.25</v>
       </c>
       <c r="I4" s="1">
-        <v>-220.041000</v>
+        <v>-220.041</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>32075.112411</v>
+        <v>32075.112410999998</v>
       </c>
       <c r="L4" s="1">
-        <v>8.909753</v>
+        <v>8.9097530000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.620000</v>
+        <v>1200.6199999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.662000</v>
+        <v>-152.66200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>32085.602797</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.912667</v>
+        <v>8.9126670000000008</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.190000</v>
+        <v>-130.19</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>32096.186961</v>
+        <v>32096.186960999999</v>
       </c>
       <c r="V4" s="1">
-        <v>8.915607</v>
+        <v>8.9156069999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1215.970000</v>
+        <v>1215.97</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>32106.648545</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.918513</v>
+        <v>8.9185130000000008</v>
       </c>
       <c r="AB4" s="1">
-        <v>1223.570000</v>
+        <v>1223.57</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.207800</v>
+        <v>-91.207800000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>32117.201956</v>
+        <v>32117.201956000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.921445</v>
+        <v>8.9214450000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1227.980000</v>
+        <v>1227.98</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.526000</v>
+        <v>-86.525999999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>32127.678455</v>
+        <v>32127.678455000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.924355</v>
+        <v>8.9243550000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>1234.950000</v>
+        <v>1234.95</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.634600</v>
+        <v>-89.634600000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>32137.991735</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.927220</v>
+        <v>8.9272200000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.502000</v>
+        <v>-101.502</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>32148.684025</v>
+        <v>32148.684024999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.930190</v>
+        <v>8.9301899999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.894000</v>
+        <v>-120.89400000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>32159.389643</v>
+        <v>32159.389642999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.933164</v>
+        <v>8.9331639999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.460000</v>
+        <v>-138.46</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>32170.055613</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.936127</v>
+        <v>8.9361270000000008</v>
       </c>
       <c r="BF4" s="1">
-        <v>1300.370000</v>
+        <v>1300.3699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.279000</v>
+        <v>-221.279</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>32180.702736</v>
+        <v>32180.702735999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.939084</v>
+        <v>8.9390839999999994</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.490000</v>
+        <v>1369.49</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.677000</v>
+        <v>-359.67700000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>32192.157840</v>
+        <v>32192.15784</v>
       </c>
       <c r="BO4" s="1">
         <v>8.942266</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.650000</v>
+        <v>1483.65</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-585.723000</v>
+        <v>-585.72299999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>32202.561460</v>
+        <v>32202.561460000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.945156</v>
+        <v>8.9451560000000008</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.070000</v>
+        <v>1616.07</v>
       </c>
       <c r="BV4" s="1">
-        <v>-841.201000</v>
+        <v>-841.20100000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>32213.255204</v>
+        <v>32213.255204000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.948126</v>
+        <v>8.9481260000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1768.380000</v>
+        <v>1768.38</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1120.480000</v>
+        <v>-1120.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>32224.397798</v>
+        <v>32224.397798000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.951222</v>
+        <v>8.9512219999999996</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.060000</v>
+        <v>2190.06</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1801.020000</v>
+        <v>-1801.02</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>32054.367276</v>
+        <v>32054.367276000001</v>
       </c>
       <c r="B5" s="1">
-        <v>8.903991</v>
+        <v>8.9039909999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.610000</v>
+        <v>1150.6099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.209000</v>
+        <v>-261.209</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>32065.022328</v>
+        <v>32065.022327999999</v>
       </c>
       <c r="G5" s="1">
-        <v>8.906951</v>
+        <v>8.9069509999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.650000</v>
+        <v>1172.6500000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.832000</v>
+        <v>-219.83199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>32075.499814</v>
+        <v>32075.499813999999</v>
       </c>
       <c r="L5" s="1">
-        <v>8.909861</v>
+        <v>8.9098609999999994</v>
       </c>
       <c r="M5" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.749000</v>
+        <v>-152.749</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>32085.990466</v>
+        <v>32085.990465999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.912775</v>
+        <v>8.9127749999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.088000</v>
+        <v>-130.08799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>32096.530656</v>
+        <v>32096.530655999999</v>
       </c>
       <c r="V5" s="1">
-        <v>8.915703</v>
+        <v>8.9157030000000006</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.749000</v>
+        <v>-108.749</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>32106.996273</v>
+        <v>32106.996273000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.918610</v>
+        <v>8.9186099999999993</v>
       </c>
       <c r="AB5" s="1">
-        <v>1223.590000</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.158400</v>
+        <v>-91.1584</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>32117.546644</v>
+        <v>32117.546643999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.921541</v>
+        <v>8.9215409999999995</v>
       </c>
       <c r="AG5" s="1">
-        <v>1227.970000</v>
+        <v>1227.97</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.490000</v>
+        <v>-86.49</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>32128.110474</v>
+        <v>32128.110474000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.924475</v>
+        <v>8.9244749999999993</v>
       </c>
       <c r="AL5" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.657800</v>
+        <v>-89.657799999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>32138.455496</v>
+        <v>32138.455495999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.927349</v>
+        <v>8.9273489999999995</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.528000</v>
+        <v>-101.52800000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>32148.993536</v>
+        <v>32148.993536000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.930276</v>
+        <v>8.9302759999999992</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.870000</v>
+        <v>-120.87</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>32159.747295</v>
+        <v>32159.747295000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.933263</v>
+        <v>8.9332630000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.474000</v>
+        <v>-138.47399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>32170.414759</v>
+        <v>32170.414758999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.936226</v>
+        <v>8.9362259999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1300.350000</v>
+        <v>1300.3499999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.227000</v>
+        <v>-221.227</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>32181.077743</v>
+        <v>32181.077743000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.939188</v>
+        <v>8.9391879999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.560000</v>
+        <v>1369.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.694000</v>
+        <v>-359.69400000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>32192.581425</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.942384</v>
+        <v>8.9423840000000006</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.720000</v>
+        <v>1483.72</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-585.692000</v>
+        <v>-585.69200000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>32202.990466</v>
+        <v>32202.990465999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.945275</v>
+        <v>8.9452750000000005</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV5" s="1">
-        <v>-841.300000</v>
+        <v>-841.3</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>32213.688179</v>
+        <v>32213.688179000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.948247</v>
+        <v>8.9482470000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1768.490000</v>
+        <v>1768.49</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1120.690000</v>
+        <v>-1120.69</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>32224.938933</v>
+        <v>32224.938933000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.951372</v>
+        <v>8.9513719999999992</v>
       </c>
       <c r="CE5" s="1">
-        <v>2189.630000</v>
+        <v>2189.63</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1797.960000</v>
+        <v>-1797.96</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>32055.018486</v>
+        <v>32055.018486000001</v>
       </c>
       <c r="B6" s="1">
-        <v>8.904172</v>
+        <v>8.9041720000000009</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.350000</v>
+        <v>1150.3499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.714000</v>
+        <v>-261.714</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>32065.410666</v>
       </c>
       <c r="G6" s="1">
-        <v>8.907059</v>
+        <v>8.9070590000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.320000</v>
+        <v>1173.32</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.896000</v>
+        <v>-219.89599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>32075.845500</v>
+        <v>32075.845499999999</v>
       </c>
       <c r="L6" s="1">
-        <v>8.909957</v>
+        <v>8.9099570000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.891000</v>
+        <v>-152.89099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>32086.335884</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.912871</v>
+        <v>8.9128710000000009</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.111000</v>
+        <v>-130.11099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>32096.877887</v>
+        <v>32096.877886999999</v>
       </c>
       <c r="V6" s="1">
-        <v>8.915799</v>
+        <v>8.9157989999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1215.930000</v>
+        <v>1215.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.738000</v>
+        <v>-108.738</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>32107.423825</v>
+        <v>32107.423825000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.918729</v>
+        <v>8.9187290000000008</v>
       </c>
       <c r="AB6" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.214900</v>
+        <v>-91.2149</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>32117.960308</v>
+        <v>32117.960308000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.921656</v>
+        <v>8.9216560000000005</v>
       </c>
       <c r="AG6" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.505500</v>
+        <v>-86.505499999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>32128.382740</v>
+        <v>32128.382740000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.924551</v>
+        <v>8.9245509999999992</v>
       </c>
       <c r="AL6" s="1">
-        <v>1234.920000</v>
+        <v>1234.92</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.666000</v>
+        <v>-89.665999999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>32138.742220</v>
+        <v>32138.74222</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.927428</v>
+        <v>8.9274280000000008</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.515000</v>
+        <v>-101.515</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>32149.359050</v>
+        <v>32149.359049999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.930378</v>
+        <v>8.9303779999999993</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.887000</v>
+        <v>-120.887</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>32160.103386</v>
+        <v>32160.103385999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.933362</v>
+        <v>8.9333620000000007</v>
       </c>
       <c r="BA6" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.450000</v>
+        <v>-138.44999999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>32170.778781</v>
+        <v>32170.778781000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.936327</v>
+        <v>8.9363270000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1300.310000</v>
+        <v>1300.31</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.216000</v>
+        <v>-221.21600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>32181.829151</v>
+        <v>32181.829151000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.939397</v>
+        <v>8.9393969999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.530000</v>
+        <v>1369.53</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.715000</v>
+        <v>-359.71499999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>32192.975777</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.942493</v>
+        <v>8.9424930000000007</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.680000</v>
+        <v>1483.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-585.784000</v>
+        <v>-585.78399999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>32203.398705</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.945389</v>
+        <v>8.9453890000000005</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.340000</v>
+        <v>1616.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-841.401000</v>
+        <v>-841.40099999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>32214.110276</v>
+        <v>32214.110275999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.948364</v>
+        <v>8.9483639999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1768.540000</v>
+        <v>1768.54</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1120.540000</v>
+        <v>-1120.54</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>32225.789108</v>
+        <v>32225.789108000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.951608</v>
+        <v>8.9516080000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.600000</v>
+        <v>2190.6</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1800.500000</v>
+        <v>-1800.5</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>32055.389493</v>
+        <v>32055.389492999999</v>
       </c>
       <c r="B7" s="1">
-        <v>8.904275</v>
+        <v>8.9042750000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1150.260000</v>
+        <v>1150.26</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.509000</v>
+        <v>-261.50900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>32065.756873</v>
+        <v>32065.756872999998</v>
       </c>
       <c r="G7" s="1">
-        <v>8.907155</v>
+        <v>8.9071549999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.324000</v>
+        <v>-219.32400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>32076.191363</v>
+        <v>32076.191363000002</v>
       </c>
       <c r="L7" s="1">
-        <v>8.910053</v>
+        <v>8.9100529999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.747000</v>
+        <v>-152.74700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>32086.687581</v>
+        <v>32086.687580999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.912969</v>
+        <v>8.9129690000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.141000</v>
+        <v>-130.14099999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>32097.302462</v>
       </c>
       <c r="V7" s="1">
-        <v>8.915917</v>
+        <v>8.9159170000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.742000</v>
+        <v>-108.742</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>32107.700560</v>
+        <v>32107.700560000001</v>
       </c>
       <c r="AA7" s="1">
         <v>8.918806</v>
       </c>
       <c r="AB7" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.218800</v>
+        <v>-91.218800000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>32118.240546</v>
+        <v>32118.240546000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.921733</v>
+        <v>8.9217329999999997</v>
       </c>
       <c r="AG7" s="1">
-        <v>1227.940000</v>
+        <v>1227.94</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.506000</v>
+        <v>-86.506</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>32128.735894</v>
+        <v>32128.735894000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.924649</v>
+        <v>8.9246490000000005</v>
       </c>
       <c r="AL7" s="1">
-        <v>1234.920000</v>
+        <v>1234.92</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.639100</v>
+        <v>-89.639099999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>32139.069303</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.927519</v>
+        <v>8.9275190000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.527000</v>
+        <v>-101.527</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>32149.723609</v>
+        <v>32149.723609000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.930479</v>
+        <v>8.9304790000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.902000</v>
+        <v>-120.902</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>32160.822090</v>
+        <v>32160.822090000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.933562</v>
+        <v>8.9335620000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.477000</v>
+        <v>-138.477</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>32171.505420</v>
+        <v>32171.505420000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.936529</v>
+        <v>8.9365290000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.244000</v>
+        <v>-221.244</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>32182.205117</v>
+        <v>32182.205117000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.939501</v>
+        <v>8.9395009999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.500000</v>
+        <v>1369.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.656000</v>
+        <v>-359.65600000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>32193.397838</v>
+        <v>32193.397838000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.942611</v>
+        <v>8.9426109999999994</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.720000</v>
+        <v>1483.72</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-585.782000</v>
+        <v>-585.78200000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>32203.833665</v>
+        <v>32203.833664999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.945509</v>
+        <v>8.9455089999999995</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.280000</v>
+        <v>1616.28</v>
       </c>
       <c r="BV7" s="1">
-        <v>-841.558000</v>
+        <v>-841.55799999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>32214.833938</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.948565</v>
+        <v>8.9485650000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1768.280000</v>
+        <v>1768.28</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1120.500000</v>
+        <v>-1120.5</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>32226.018243</v>
+        <v>32226.018242999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.951672</v>
+        <v>8.9516720000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.510000</v>
+        <v>2190.5100000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1800.530000</v>
+        <v>-1800.53</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>32055.738222</v>
       </c>
       <c r="B8" s="1">
-        <v>8.904372</v>
+        <v>8.9043720000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.280000</v>
+        <v>1150.28</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.507000</v>
+        <v>-261.50700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>32066.101096</v>
+        <v>32066.101095999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8.907250</v>
+        <v>8.9072499999999994</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.470000</v>
+        <v>1172.47</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.767000</v>
+        <v>-219.767</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>32076.610825</v>
       </c>
       <c r="L8" s="1">
-        <v>8.910170</v>
+        <v>8.9101700000000008</v>
       </c>
       <c r="M8" s="1">
-        <v>1200.890000</v>
+        <v>1200.8900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.654000</v>
+        <v>-152.654</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>32087.107661</v>
+        <v>32087.107660999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.913085</v>
+        <v>8.9130850000000006</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.175000</v>
+        <v>-130.17500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>32097.582209</v>
       </c>
       <c r="V8" s="1">
-        <v>8.915995</v>
+        <v>8.9159950000000006</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.786000</v>
+        <v>-108.786</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>32108.048256</v>
+        <v>32108.048255999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.918902</v>
+        <v>8.9189019999999992</v>
       </c>
       <c r="AB8" s="1">
-        <v>1223.520000</v>
+        <v>1223.52</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.364000</v>
+        <v>-91.364000000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>32118.581329</v>
+        <v>32118.581329000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.921828</v>
+        <v>8.9218279999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1227.990000</v>
+        <v>1227.99</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.542800</v>
+        <v>-86.5428</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>32129.083091</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.924745</v>
+        <v>8.9247449999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.648200</v>
+        <v>-89.648200000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>32139.790231</v>
+        <v>32139.790230999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.927720</v>
+        <v>8.9277200000000008</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.531000</v>
+        <v>-101.53100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>32150.453224</v>
+        <v>32150.453224000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.930681</v>
+        <v>8.9306809999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.881000</v>
+        <v>-120.881</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>32161.210954</v>
+        <v>32161.210953999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.933670</v>
+        <v>8.9336699999999993</v>
       </c>
       <c r="BA8" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.482000</v>
+        <v>-138.482</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>32171.858076</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.936627</v>
+        <v>8.9366269999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.237000</v>
+        <v>-221.23699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>32182.582077</v>
+        <v>32182.582076999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.939606</v>
+        <v>8.9396059999999995</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.530000</v>
+        <v>1369.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.700000</v>
+        <v>-359.7</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>32194.102688</v>
+        <v>32194.102687999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.942806</v>
+        <v>8.9428059999999991</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.710000</v>
+        <v>1483.71</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-585.765000</v>
+        <v>-585.76499999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>32204.578160</v>
+        <v>32204.578160000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.945716</v>
+        <v>8.9457159999999991</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.330000</v>
+        <v>1616.33</v>
       </c>
       <c r="BV8" s="1">
-        <v>-841.676000</v>
+        <v>-841.67600000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>32214.956482</v>
+        <v>32214.956482000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.948599</v>
+        <v>8.9485989999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1768.520000</v>
+        <v>1768.52</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1120.350000</v>
+        <v>-1120.3499999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>32226.538532</v>
+        <v>32226.538531999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.951816</v>
+        <v>8.9518160000000009</v>
       </c>
       <c r="CE8" s="1">
-        <v>2189.990000</v>
+        <v>2189.9899999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1798.560000</v>
+        <v>-1798.56</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>32056.163785</v>
+        <v>32056.163785000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.904490</v>
+        <v>8.9044899999999991</v>
       </c>
       <c r="C9" s="1">
-        <v>1150.420000</v>
+        <v>1150.42</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.721000</v>
+        <v>-261.721</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>32066.532656</v>
+        <v>32066.532655999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.907370</v>
+        <v>8.9073700000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.830000</v>
+        <v>1172.83</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.186000</v>
+        <v>-219.18600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>32076.881181</v>
+        <v>32076.881181000001</v>
       </c>
       <c r="L9" s="1">
-        <v>8.910245</v>
+        <v>8.9102449999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.440000</v>
+        <v>1200.44</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.622000</v>
+        <v>-152.62200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>32087.391371</v>
+        <v>32087.391371000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.913164</v>
+        <v>8.9131640000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.234000</v>
+        <v>-130.23400000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>32097.922740</v>
+        <v>32097.922740000002</v>
       </c>
       <c r="V9" s="1">
-        <v>8.916090</v>
+        <v>8.9160900000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>1215.960000</v>
+        <v>1215.96</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.823000</v>
+        <v>-108.82299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>32108.396944</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.918999</v>
+        <v>8.9189989999999995</v>
       </c>
       <c r="AB9" s="1">
-        <v>1223.470000</v>
+        <v>1223.47</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.179800</v>
+        <v>-91.1798</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>32118.927505</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.921924</v>
+        <v>8.9219240000000006</v>
       </c>
       <c r="AG9" s="1">
-        <v>1228.000000</v>
+        <v>1228</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.470200</v>
+        <v>-86.470200000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>32129.780467</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.924939</v>
+        <v>8.9249390000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1234.940000</v>
+        <v>1234.94</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.650500</v>
+        <v>-89.650499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>32140.151813</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.927820</v>
+        <v>8.9278200000000005</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>32150.842120</v>
+        <v>32150.842120000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.930789</v>
+        <v>8.9307890000000008</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.867000</v>
+        <v>-120.867</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>32161.569097</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.933769</v>
+        <v>8.9337689999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.491000</v>
+        <v>-138.49100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>32172.532795</v>
+        <v>32172.532794999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.936815</v>
+        <v>8.9368149999999993</v>
       </c>
       <c r="BF9" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.213000</v>
+        <v>-221.21299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>32183.258124</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.939794</v>
+        <v>8.9397939999999991</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.530000</v>
+        <v>1369.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.715000</v>
+        <v>-359.71499999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>32194.234130</v>
+        <v>32194.234130000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.942843</v>
+        <v>8.9428429999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.730000</v>
+        <v>1483.73</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-585.766000</v>
+        <v>-585.76599999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>32204.703151</v>
+        <v>32204.703151000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.945751</v>
+        <v>8.9457509999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.230000</v>
+        <v>1616.23</v>
       </c>
       <c r="BV9" s="1">
-        <v>-841.788000</v>
+        <v>-841.78800000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>32215.403347</v>
+        <v>32215.403346999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.948723</v>
+        <v>8.9487229999999993</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1768.480000</v>
+        <v>1768.48</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1120.560000</v>
+        <v>-1120.56</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>32227.054867</v>
+        <v>32227.054866999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.951960</v>
+        <v>8.9519599999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.360000</v>
+        <v>2190.36</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1798.960000</v>
+        <v>-1798.96</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>32056.443122</v>
+        <v>32056.443122000001</v>
       </c>
       <c r="B10" s="1">
-        <v>8.904568</v>
+        <v>8.9045679999999994</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.910000</v>
+        <v>1149.9100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.343000</v>
+        <v>-261.34300000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>32066.799957</v>
+        <v>32066.799956999999</v>
       </c>
       <c r="G10" s="1">
-        <v>8.907444</v>
+        <v>8.9074439999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.100000</v>
+        <v>1172.0999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.904000</v>
+        <v>-219.904</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>32077.226362</v>
+        <v>32077.226362000001</v>
       </c>
       <c r="L10" s="1">
-        <v>8.910341</v>
+        <v>8.9103410000000007</v>
       </c>
       <c r="M10" s="1">
-        <v>1200.480000</v>
+        <v>1200.48</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.709000</v>
+        <v>-152.709</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>32087.736588</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.913260</v>
+        <v>8.9132599999999993</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.204000</v>
+        <v>-130.20400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>32098.266653</v>
+        <v>32098.266652999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.916185</v>
+        <v>8.9161850000000005</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.679000</v>
+        <v>-108.679</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>32109.092334</v>
+        <v>32109.092334000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.919192</v>
+        <v>8.9191920000000007</v>
       </c>
       <c r="AB10" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.107400</v>
+        <v>-91.107399999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>32119.612482</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.922115</v>
+        <v>8.9221149999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1227.980000</v>
+        <v>1227.98</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.464200</v>
+        <v>-86.464200000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>32130.130642</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.925036</v>
+        <v>8.9250360000000004</v>
       </c>
       <c r="AL10" s="1">
-        <v>1234.900000</v>
+        <v>1234.9000000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.676500</v>
+        <v>-89.676500000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>32140.508438</v>
+        <v>32140.508438000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.927919</v>
+        <v>8.9279189999999993</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.525000</v>
+        <v>-101.52500000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>32151.206152</v>
+        <v>32151.206151999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.930891</v>
+        <v>8.9308910000000008</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.859000</v>
+        <v>-120.85899999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>32162.247097</v>
+        <v>32162.247096999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.933958</v>
+        <v>8.9339580000000005</v>
       </c>
       <c r="BA10" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.468000</v>
+        <v>-138.46799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>32172.966139</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.936935</v>
+        <v>8.9369350000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1300.390000</v>
+        <v>1300.3900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.211000</v>
+        <v>-221.21100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>32183.706509</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.939918</v>
+        <v>8.9399180000000005</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.530000</v>
+        <v>1369.53</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.681000</v>
+        <v>-359.68099999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>32194.640317</v>
+        <v>32194.640317000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.942956</v>
+        <v>8.9429560000000006</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-585.787000</v>
+        <v>-585.78700000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>32205.140623</v>
+        <v>32205.140622999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.945872</v>
+        <v>8.9458719999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1616.150000</v>
+        <v>1616.15</v>
       </c>
       <c r="BV10" s="1">
-        <v>-841.904000</v>
+        <v>-841.904</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>32215.832913</v>
+        <v>32215.832912999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.948842</v>
+        <v>8.9488420000000009</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1768.460000</v>
+        <v>1768.46</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1120.500000</v>
+        <v>-1120.5</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>32227.616835</v>
+        <v>32227.616835000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.952116</v>
+        <v>8.9521160000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.490000</v>
+        <v>2190.4899999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1801.340000</v>
+        <v>-1801.34</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>32056.784275</v>
+        <v>32056.784275000002</v>
       </c>
       <c r="B11" s="1">
-        <v>8.904662</v>
+        <v>8.9046620000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1150.250000</v>
+        <v>1150.25</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.468000</v>
+        <v>-261.46800000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>32067.143221</v>
+        <v>32067.143220999998</v>
       </c>
       <c r="G11" s="1">
-        <v>8.907540</v>
+        <v>8.9075399999999991</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.740000</v>
+        <v>1172.74</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.824000</v>
+        <v>-219.82400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>32077.571576</v>
+        <v>32077.571575999998</v>
       </c>
       <c r="L11" s="1">
-        <v>8.910437</v>
+        <v>8.9104369999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.931000</v>
+        <v>-152.93100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>32088.083328</v>
+        <v>32088.083328000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.913356</v>
+        <v>8.9133560000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.670000</v>
+        <v>1208.67</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.093000</v>
+        <v>-130.09299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>32098.952620</v>
+        <v>32098.95262</v>
       </c>
       <c r="V11" s="1">
-        <v>8.916376</v>
+        <v>8.9163759999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.733000</v>
+        <v>-108.733</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>32109.443006</v>
+        <v>32109.443006000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.919290</v>
+        <v>8.9192900000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1223.400000</v>
+        <v>1223.4000000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.281600</v>
+        <v>-91.281599999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>32119.956703</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.922210</v>
+        <v>8.9222099999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1227.980000</v>
+        <v>1227.98</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.475900</v>
+        <v>-86.475899999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>32130.475897</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.925132</v>
+        <v>8.9251319999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>1234.920000</v>
+        <v>1234.92</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.628200</v>
+        <v>-89.628200000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>32141.184979</v>
+        <v>32141.184979000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.928107</v>
+        <v>8.9281070000000007</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.518000</v>
+        <v>-101.518</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>32151.889142</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.931080</v>
+        <v>8.9310799999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.858000</v>
+        <v>-120.858</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>32162.671208</v>
@@ -2944,3429 +3360,3429 @@
         <v>8.934075</v>
       </c>
       <c r="BA11" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.472000</v>
+        <v>-138.47200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>32173.326268</v>
+        <v>32173.326268000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.937035</v>
+        <v>8.9370349999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1300.380000</v>
+        <v>1300.3800000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.248000</v>
+        <v>-221.24799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>32184.081979</v>
+        <v>32184.081978999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.940023</v>
+        <v>8.9400230000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.711000</v>
+        <v>-359.71100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>32195.039102</v>
+        <v>32195.039101999999</v>
       </c>
       <c r="BO11" s="1">
         <v>8.943066</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.680000</v>
+        <v>1483.68</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-585.742000</v>
+        <v>-585.74199999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>32205.747231</v>
+        <v>32205.747231000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.946041</v>
+        <v>8.9460409999999992</v>
       </c>
       <c r="BU11" s="1">
-        <v>1616.160000</v>
+        <v>1616.16</v>
       </c>
       <c r="BV11" s="1">
-        <v>-841.918000</v>
+        <v>-841.91800000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>32216.258450</v>
+        <v>32216.258450000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.948961</v>
+        <v>8.9489610000000006</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1768.520000</v>
+        <v>1768.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1120.570000</v>
+        <v>-1120.57</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>32228.138161</v>
+        <v>32228.138160999999</v>
       </c>
       <c r="CD11" s="1">
         <v>8.952261</v>
       </c>
       <c r="CE11" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1798.780000</v>
+        <v>-1798.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>32057.128499</v>
+        <v>32057.128498999999</v>
       </c>
       <c r="B12" s="1">
-        <v>8.904758</v>
+        <v>8.9047579999999993</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.380000</v>
+        <v>1150.3800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.463000</v>
+        <v>-261.46300000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>32067.490390</v>
+        <v>32067.490389999999</v>
       </c>
       <c r="G12" s="1">
-        <v>8.907636</v>
+        <v>8.9076360000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1172.320000</v>
+        <v>1172.32</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.959000</v>
+        <v>-219.959</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>32078.267000</v>
+        <v>32078.267</v>
       </c>
       <c r="L12" s="1">
-        <v>8.910630</v>
+        <v>8.9106299999999994</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.690000</v>
+        <v>1200.69</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.592000</v>
+        <v>-152.59200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>32088.781201</v>
+        <v>32088.781201000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.913550</v>
+        <v>8.9135500000000008</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.125000</v>
+        <v>-130.125</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>32099.297870</v>
+        <v>32099.297869999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.916472</v>
+        <v>8.9164720000000006</v>
       </c>
       <c r="W12" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.760000</v>
+        <v>-108.76</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>32109.789215</v>
+        <v>32109.789215000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.919386</v>
+        <v>8.9193859999999994</v>
       </c>
       <c r="AB12" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.257000</v>
+        <v>-91.257000000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>32120.301455</v>
+        <v>32120.301455000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.922306</v>
+        <v>8.9223060000000007</v>
       </c>
       <c r="AG12" s="1">
-        <v>1227.950000</v>
+        <v>1227.95</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.522000</v>
+        <v>-86.522000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>32131.132603</v>
+        <v>32131.132602999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.925315</v>
+        <v>8.9253149999999994</v>
       </c>
       <c r="AL12" s="1">
-        <v>1234.940000</v>
+        <v>1234.94</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.661400</v>
+        <v>-89.6614</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>32141.621491</v>
+        <v>32141.621491000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.928228</v>
+        <v>8.9282280000000007</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.502000</v>
+        <v>-101.502</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>32152.334757</v>
+        <v>32152.334757000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.931204</v>
+        <v>8.9312039999999993</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.894000</v>
+        <v>-120.89400000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>32163.052104</v>
+        <v>32163.052103999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.934181</v>
+        <v>8.9341810000000006</v>
       </c>
       <c r="BA12" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.476000</v>
+        <v>-138.476</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>32173.688313</v>
+        <v>32173.688312999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.937136</v>
+        <v>8.9371360000000006</v>
       </c>
       <c r="BF12" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.221000</v>
+        <v>-221.221</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>32184.456459</v>
+        <v>32184.456459000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.940127</v>
+        <v>8.9401270000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.560000</v>
+        <v>1369.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.688000</v>
+        <v>-359.68799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>32195.460700</v>
+        <v>32195.4607</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.943184</v>
+        <v>8.9431840000000005</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.650000</v>
+        <v>1483.65</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-585.770000</v>
+        <v>-585.77</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>32205.962494</v>
+        <v>32205.962493999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.946101</v>
+        <v>8.9461010000000005</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.090000</v>
+        <v>1616.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-842.122000</v>
+        <v>-842.12199999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>32216.677568</v>
+        <v>32216.677567999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.949077</v>
+        <v>8.9490770000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1768.360000</v>
+        <v>1768.36</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1120.450000</v>
+        <v>-1120.45</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>32228.654992</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.952404</v>
+        <v>8.9524039999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>2188.730000</v>
+        <v>2188.73</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1798.510000</v>
+        <v>-1798.51</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>32057.806498</v>
+        <v>32057.806498000002</v>
       </c>
       <c r="B13" s="1">
-        <v>8.904946</v>
+        <v>8.9049460000000007</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.729000</v>
+        <v>-261.72899999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>32068.182343</v>
       </c>
       <c r="G13" s="1">
-        <v>8.907828</v>
+        <v>8.9078280000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.530000</v>
+        <v>1172.53</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.007000</v>
+        <v>-219.00700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>32078.610694</v>
+        <v>32078.610693999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.910725</v>
+        <v>8.9107249999999993</v>
       </c>
       <c r="M13" s="1">
-        <v>1200.700000</v>
+        <v>1200.7</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.606000</v>
+        <v>-152.60599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>32089.132329</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.913648</v>
+        <v>8.9136480000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.730000</v>
+        <v>1208.73</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.124000</v>
+        <v>-130.124</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>32099.641066</v>
       </c>
       <c r="V13" s="1">
-        <v>8.916567</v>
+        <v>8.9165670000000006</v>
       </c>
       <c r="W13" s="1">
-        <v>1215.960000</v>
+        <v>1215.96</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.851000</v>
+        <v>-108.851</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>32110.449884</v>
+        <v>32110.449884000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.919569</v>
+        <v>8.9195689999999992</v>
       </c>
       <c r="AB13" s="1">
-        <v>1223.400000</v>
+        <v>1223.4000000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.248100</v>
+        <v>-91.248099999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>32120.961102</v>
+        <v>32120.961102000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.922489</v>
+        <v>8.9224890000000006</v>
       </c>
       <c r="AG13" s="1">
-        <v>1228.040000</v>
+        <v>1228.04</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.541700</v>
+        <v>-86.541700000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>32131.523442</v>
+        <v>32131.523442000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.925423</v>
+        <v>8.9254230000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>1234.910000</v>
+        <v>1234.9100000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.658500</v>
+        <v>-89.658500000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>32141.980596</v>
+        <v>32141.980596000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.928328</v>
+        <v>8.9283280000000005</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1242.740000</v>
+        <v>1242.74</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.481000</v>
+        <v>-101.48099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>32152.700598</v>
+        <v>32152.700597999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.931306</v>
+        <v>8.9313059999999993</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.914000</v>
+        <v>-120.914</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>32163.410248</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.934281</v>
+        <v>8.9342810000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.494000</v>
+        <v>-138.494</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>32174.107433</v>
+        <v>32174.107433000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.937252</v>
+        <v>8.9372520000000009</v>
       </c>
       <c r="BF13" s="1">
-        <v>1300.370000</v>
+        <v>1300.3699999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.247000</v>
+        <v>-221.24700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>32184.876106</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.940243</v>
+        <v>8.9402430000000006</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.520000</v>
+        <v>1369.52</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.666000</v>
+        <v>-359.666</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>32195.856011</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.943293</v>
+        <v>8.9432930000000006</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.690000</v>
+        <v>1483.69</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-585.772000</v>
+        <v>-585.77200000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>32206.378639</v>
+        <v>32206.378638999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.946216</v>
+        <v>8.9462159999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.960000</v>
+        <v>1615.96</v>
       </c>
       <c r="BV13" s="1">
-        <v>-842.079000</v>
+        <v>-842.07899999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>32217.105119</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.949196</v>
+        <v>8.9491960000000006</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1768.410000</v>
+        <v>1768.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1120.580000</v>
+        <v>-1120.58</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>32229.163359</v>
+        <v>32229.163358999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.952545</v>
+        <v>8.9525450000000006</v>
       </c>
       <c r="CE13" s="1">
-        <v>2188.480000</v>
+        <v>2188.48</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1800.320000</v>
+        <v>-1800.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>32058.150226</v>
+        <v>32058.150226000002</v>
       </c>
       <c r="B14" s="1">
-        <v>8.905042</v>
+        <v>8.9050419999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1150.400000</v>
+        <v>1150.4000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.478000</v>
+        <v>-261.47800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32068.528556</v>
+        <v>32068.528556000001</v>
       </c>
       <c r="G14" s="1">
-        <v>8.907925</v>
+        <v>8.9079250000000005</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.810000</v>
+        <v>1172.81</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.986000</v>
+        <v>-219.98599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>32078.956921</v>
+        <v>32078.956921000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.910821</v>
+        <v>8.9108210000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.851000</v>
+        <v>-152.851</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>32089.794983</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.913832</v>
+        <v>8.9138319999999993</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.212000</v>
+        <v>-130.21199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>32100.294795</v>
+        <v>32100.294795000002</v>
       </c>
       <c r="V14" s="1">
-        <v>8.916749</v>
+        <v>8.9167489999999994</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.050000</v>
+        <v>1216.05</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>32110.835772</v>
+        <v>32110.835771999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.919677</v>
+        <v>8.9196770000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.102900</v>
+        <v>-91.102900000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>32121.337355</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.922594</v>
+        <v>8.9225940000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1227.980000</v>
+        <v>1227.98</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.527100</v>
+        <v>-86.527100000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>32131.871631</v>
+        <v>32131.871631000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.925520</v>
+        <v>8.9255200000000006</v>
       </c>
       <c r="AL14" s="1">
-        <v>1234.920000</v>
+        <v>1234.92</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.650300</v>
+        <v>-89.650300000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>32142.342642</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.928429</v>
+        <v>8.9284289999999995</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.534000</v>
+        <v>-101.53400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>32153.064164</v>
+        <v>32153.064163999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.931407</v>
+        <v>8.9314070000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.882000</v>
+        <v>-120.88200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>32163.825863</v>
+        <v>32163.825862999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.934396</v>
+        <v>8.9343959999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.483000</v>
+        <v>-138.483</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>32174.410526</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.937336</v>
+        <v>8.9373360000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1300.400000</v>
+        <v>1300.4000000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.233000</v>
+        <v>-221.233</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>32185.226745</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.940341</v>
+        <v>8.9403410000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.510000</v>
+        <v>1369.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.669000</v>
+        <v>-359.66899999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>32196.279595</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.943411</v>
+        <v>8.9434109999999993</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.720000</v>
+        <v>1483.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-585.759000</v>
+        <v>-585.75900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>32206.793329</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.946331</v>
+        <v>8.9463310000000007</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.880000</v>
+        <v>1615.88</v>
       </c>
       <c r="BV14" s="1">
-        <v>-842.183000</v>
+        <v>-842.18299999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>32217.519774</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.949311</v>
+        <v>8.9493109999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1768.410000</v>
+        <v>1768.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1120.560000</v>
+        <v>-1120.56</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>32229.692591</v>
+        <v>32229.692590999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.952692</v>
+        <v>8.9526920000000008</v>
       </c>
       <c r="CE14" s="1">
-        <v>2189.490000</v>
+        <v>2189.4899999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1798.440000</v>
+        <v>-1798.44</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>32058.492465</v>
+        <v>32058.492464999999</v>
       </c>
       <c r="B15" s="1">
-        <v>8.905137</v>
+        <v>8.9051369999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.250000</v>
+        <v>1150.25</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.726000</v>
+        <v>-261.726</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>32068.873235</v>
+        <v>32068.873234999999</v>
       </c>
       <c r="G15" s="1">
-        <v>8.908020</v>
+        <v>8.9080200000000005</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.850000</v>
+        <v>1171.8499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.144000</v>
+        <v>-219.14400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>32079.621541</v>
       </c>
       <c r="L15" s="1">
-        <v>8.911006</v>
+        <v>8.9110060000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.950000</v>
+        <v>1200.95</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.732000</v>
+        <v>-152.732</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>32090.173460</v>
+        <v>32090.173460000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.913937</v>
+        <v>8.9139370000000007</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.670000</v>
+        <v>1208.67</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.127000</v>
+        <v>-130.12700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>32100.674729</v>
+        <v>32100.674728999998</v>
       </c>
       <c r="V15" s="1">
-        <v>8.916854</v>
+        <v>8.9168540000000007</v>
       </c>
       <c r="W15" s="1">
-        <v>1215.950000</v>
+        <v>1215.95</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.795000</v>
+        <v>-108.795</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>32111.183003</v>
+        <v>32111.183002999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.919773</v>
+        <v>8.9197729999999993</v>
       </c>
       <c r="AB15" s="1">
-        <v>1223.450000</v>
+        <v>1223.45</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.311600</v>
+        <v>-91.311599999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>32121.687748</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.922691</v>
+        <v>8.9226910000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>1227.990000</v>
+        <v>1227.99</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.484900</v>
+        <v>-86.484899999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>32132.221776</v>
+        <v>32132.221775999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.925617</v>
+        <v>8.9256170000000008</v>
       </c>
       <c r="AL15" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.643400</v>
+        <v>-89.6434</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>32142.757299</v>
+        <v>32142.757299000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.928544</v>
+        <v>8.9285440000000005</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.495000</v>
+        <v>-101.495</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>32153.490227</v>
+        <v>32153.490226999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.931525</v>
+        <v>8.9315250000000006</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.904000</v>
+        <v>-120.904</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>32164.128457</v>
+        <v>32164.128456999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.934480</v>
+        <v>8.9344800000000006</v>
       </c>
       <c r="BA15" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.454000</v>
+        <v>-138.45400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>32174.773065</v>
+        <v>32174.773065000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.937437</v>
+        <v>8.9374369999999992</v>
       </c>
       <c r="BF15" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.251000</v>
+        <v>-221.251</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>32185.603241</v>
+        <v>32185.603241000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.940445</v>
+        <v>8.9404450000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.550000</v>
+        <v>1369.55</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.695000</v>
+        <v>-359.69499999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>32196.674443</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.943521</v>
+        <v>8.9435210000000005</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.690000</v>
+        <v>1483.69</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-585.771000</v>
+        <v>-585.77099999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>32207.210461</v>
+        <v>32207.210460999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.946447</v>
+        <v>8.9464469999999992</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.700000</v>
+        <v>1615.7</v>
       </c>
       <c r="BV15" s="1">
-        <v>-842.158000</v>
+        <v>-842.15800000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>32217.976094</v>
+        <v>32217.976094000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.949438</v>
+        <v>8.9494380000000007</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1768.400000</v>
+        <v>1768.4</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1120.590000</v>
+        <v>-1120.5899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>32230.227644</v>
+        <v>32230.227643999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.952841</v>
+        <v>8.9528409999999994</v>
       </c>
       <c r="CE15" s="1">
-        <v>2188.640000</v>
+        <v>2188.64</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1800.370000</v>
+        <v>-1800.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>32059.153633</v>
+        <v>32059.153633000002</v>
       </c>
       <c r="B16" s="1">
-        <v>8.905320</v>
+        <v>8.9053199999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.130000</v>
+        <v>1150.1300000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.415000</v>
+        <v>-261.41500000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>32069.522995</v>
+        <v>32069.522994999999</v>
       </c>
       <c r="G16" s="1">
         <v>8.908201</v>
       </c>
       <c r="H16" s="1">
-        <v>1172.860000</v>
+        <v>1172.8599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-219.417000</v>
+        <v>-219.417</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>32079.992089</v>
+        <v>32079.992088999999</v>
       </c>
       <c r="L16" s="1">
-        <v>8.911109</v>
+        <v>8.9111089999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1200.390000</v>
+        <v>1200.3900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.533000</v>
+        <v>-152.53299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>32090.523368</v>
+        <v>32090.523367999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.914034</v>
+        <v>8.9140339999999991</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.109000</v>
+        <v>-130.10900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>32101.015978</v>
+        <v>32101.015977999999</v>
       </c>
       <c r="V16" s="1">
-        <v>8.916949</v>
+        <v>8.9169490000000007</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.685000</v>
+        <v>-108.685</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>32111.532156</v>
+        <v>32111.532156000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.919870</v>
+        <v>8.9198699999999995</v>
       </c>
       <c r="AB16" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.198100</v>
+        <v>-91.198099999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>32122.312700</v>
+        <v>32122.312699999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.922865</v>
+        <v>8.9228649999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1227.990000</v>
+        <v>1227.99</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.514000</v>
+        <v>-86.513999999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>32132.638913</v>
+        <v>32132.638912999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.925733</v>
+        <v>8.9257329999999993</v>
       </c>
       <c r="AL16" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.664400</v>
+        <v>-89.664400000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>32143.059894</v>
+        <v>32143.059894000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.928628</v>
+        <v>8.9286279999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.513000</v>
+        <v>-101.51300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>32153.792787</v>
+        <v>32153.792786999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.931609</v>
+        <v>8.9316089999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.910000</v>
+        <v>-120.91</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>32164.487525</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.934580</v>
+        <v>8.9345800000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.464000</v>
+        <v>-138.464</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>32175.132664</v>
+        <v>32175.132664000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.937537</v>
+        <v>8.9375370000000007</v>
       </c>
       <c r="BF16" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.251000</v>
+        <v>-221.251</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>32185.976728</v>
+        <v>32185.976728000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.940549</v>
+        <v>8.9405490000000007</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.734000</v>
+        <v>-359.73399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>32197.099978</v>
+        <v>32197.099977999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.943639</v>
+        <v>8.9436389999999992</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.700000</v>
+        <v>1483.7</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-585.702000</v>
+        <v>-585.702</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>32207.622640</v>
+        <v>32207.622640000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.946562</v>
+        <v>8.9465620000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.480000</v>
+        <v>1615.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-842.079000</v>
+        <v>-842.07899999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>32218.422493</v>
+        <v>32218.422492999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.949562</v>
+        <v>8.9495620000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1768.430000</v>
+        <v>1768.43</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1120.640000</v>
+        <v>-1120.6400000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>32230.767919</v>
+        <v>32230.767919000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.952991</v>
+        <v>8.9529910000000008</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.680000</v>
+        <v>2190.6799999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1800.010000</v>
+        <v>-1800.01</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>32059.515711</v>
       </c>
       <c r="B17" s="1">
-        <v>8.905421</v>
+        <v>8.9054210000000005</v>
       </c>
       <c r="C17" s="1">
-        <v>1150.280000</v>
+        <v>1150.28</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.472000</v>
+        <v>-261.47199999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>32069.905905</v>
       </c>
       <c r="G17" s="1">
-        <v>8.908307</v>
+        <v>8.9083070000000006</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.460000</v>
+        <v>1172.46</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.718000</v>
+        <v>-219.71799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>32080.339748</v>
+        <v>32080.339747999999</v>
       </c>
       <c r="L17" s="1">
-        <v>8.911205</v>
+        <v>8.9112050000000007</v>
       </c>
       <c r="M17" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.672000</v>
+        <v>-152.672</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>32090.872802</v>
+        <v>32090.872802000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.914131</v>
+        <v>8.9141309999999994</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.166000</v>
+        <v>-130.166</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>32101.363704</v>
+        <v>32101.363703999999</v>
       </c>
       <c r="V17" s="1">
-        <v>8.917045</v>
+        <v>8.9170449999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.050000</v>
+        <v>1216.05</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.795000</v>
+        <v>-108.795</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>32111.961226</v>
+        <v>32111.961225999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.919989</v>
+        <v>8.9199889999999993</v>
       </c>
       <c r="AB17" s="1">
-        <v>1223.460000</v>
+        <v>1223.46</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.074100</v>
+        <v>-91.074100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>32122.716476</v>
+        <v>32122.716476000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.922977</v>
+        <v>8.9229769999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>1227.980000</v>
+        <v>1227.98</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.506200</v>
+        <v>-86.506200000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>32132.930559</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.925814</v>
+        <v>8.9258140000000008</v>
       </c>
       <c r="AL17" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.644600</v>
+        <v>-89.644599999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>32143.421476</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.928728</v>
+        <v>8.9287279999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.528000</v>
+        <v>-101.52800000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>32154.147923</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.931708</v>
+        <v>8.9317080000000004</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.890000</v>
+        <v>-120.89</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>32164.847656</v>
+        <v>32164.847656000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.934680</v>
+        <v>8.9346800000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.467000</v>
+        <v>-138.46700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>32175.851367</v>
+        <v>32175.851366999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.937736</v>
+        <v>8.9377359999999992</v>
       </c>
       <c r="BF17" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.244000</v>
+        <v>-221.244</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>32186.727143</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.940758</v>
+        <v>8.9407580000000006</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.510000</v>
+        <v>1369.51</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.660000</v>
+        <v>-359.66</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>32197.492344</v>
+        <v>32197.492343999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.943748</v>
+        <v>8.9437479999999994</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.670000</v>
+        <v>1483.67</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-585.761000</v>
+        <v>-585.76099999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>32208.037261</v>
+        <v>32208.037261000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.946677</v>
+        <v>8.9466769999999993</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.380000</v>
+        <v>1615.38</v>
       </c>
       <c r="BV17" s="1">
-        <v>-842.098000</v>
+        <v>-842.09799999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>32218.844094</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.949679</v>
+        <v>8.9496789999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1768.600000</v>
+        <v>1768.6</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1120.630000</v>
+        <v>-1120.6300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>32231.613596</v>
+        <v>32231.613595999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.953226</v>
+        <v>8.9532260000000008</v>
       </c>
       <c r="CE17" s="1">
-        <v>2188.280000</v>
+        <v>2188.2800000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1800.690000</v>
+        <v>-1800.69</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>32059.862451</v>
+        <v>32059.862451000001</v>
       </c>
       <c r="B18" s="1">
-        <v>8.905517</v>
+        <v>8.9055169999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>1150.410000</v>
+        <v>1150.4100000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.400000</v>
+        <v>-261.39999999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>32070.252642</v>
+        <v>32070.252641999999</v>
       </c>
       <c r="G18" s="1">
-        <v>8.908404</v>
+        <v>8.9084040000000009</v>
       </c>
       <c r="H18" s="1">
-        <v>1172.180000</v>
+        <v>1172.18</v>
       </c>
       <c r="I18" s="1">
-        <v>-220.049000</v>
+        <v>-220.04900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>32080.684006</v>
+        <v>32080.684005999999</v>
       </c>
       <c r="L18" s="1">
-        <v>8.911301</v>
+        <v>8.9113009999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1200.720000</v>
+        <v>1200.72</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.717000</v>
+        <v>-152.71700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>32091.290918</v>
+        <v>32091.290917999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.914247</v>
+        <v>8.9142469999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.170000</v>
+        <v>-130.16999999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>32101.788248</v>
+        <v>32101.788248000001</v>
       </c>
       <c r="V18" s="1">
-        <v>8.917163</v>
+        <v>8.9171630000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.708000</v>
+        <v>-108.708</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>32112.242458</v>
+        <v>32112.242458000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.920067</v>
+        <v>8.9200669999999995</v>
       </c>
       <c r="AB18" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.355000</v>
+        <v>-91.355000000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>32123.062684</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.923073</v>
+        <v>8.9230730000000005</v>
       </c>
       <c r="AG18" s="1">
-        <v>1227.990000</v>
+        <v>1227.99</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.481600</v>
+        <v>-86.4816</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>32133.278782</v>
+        <v>32133.278782000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.925911</v>
+        <v>8.9259109999999993</v>
       </c>
       <c r="AL18" s="1">
-        <v>1234.940000</v>
+        <v>1234.94</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.655700</v>
+        <v>-89.655699999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>32143.782528</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.928828</v>
+        <v>8.9288279999999993</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1242.690000</v>
+        <v>1242.69</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>32154.522939</v>
+        <v>32154.522938999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.931812</v>
+        <v>8.9318120000000008</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.889000</v>
+        <v>-120.889</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>32165.570292</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.934881</v>
+        <v>8.9348810000000007</v>
       </c>
       <c r="BA18" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.434000</v>
+        <v>-138.434</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>32176.212986</v>
+        <v>32176.212985999999</v>
       </c>
       <c r="BE18" s="1">
         <v>8.937837</v>
       </c>
       <c r="BF18" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.246000</v>
+        <v>-221.24600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>32187.102118</v>
+        <v>32187.102117999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.940862</v>
+        <v>8.9408619999999992</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.550000</v>
+        <v>1369.55</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.666000</v>
+        <v>-359.666</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>32197.913417</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.943865</v>
+        <v>8.9438650000000006</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.700000</v>
+        <v>1483.7</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-585.743000</v>
+        <v>-585.74300000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>32208.756458</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.946877</v>
+        <v>8.9468770000000006</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.330000</v>
+        <v>1615.33</v>
       </c>
       <c r="BV18" s="1">
-        <v>-841.883000</v>
+        <v>-841.88300000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>32219.577676</v>
+        <v>32219.577676000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.949883</v>
+        <v>8.9498829999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1768.370000</v>
+        <v>1768.37</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1120.520000</v>
+        <v>-1120.52</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>32231.847707</v>
+        <v>32231.847707000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.953291</v>
+        <v>8.9532910000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2188.370000</v>
+        <v>2188.37</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1800.420000</v>
+        <v>-1800.42</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>32060.204656</v>
+        <v>32060.204656000002</v>
       </c>
       <c r="B19" s="1">
-        <v>8.905612</v>
+        <v>8.9056119999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.310000</v>
+        <v>1150.31</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.708000</v>
+        <v>-261.70800000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>32070.587409</v>
       </c>
       <c r="G19" s="1">
-        <v>8.908497</v>
+        <v>8.9084970000000006</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.220000</v>
+        <v>1172.22</v>
       </c>
       <c r="I19" s="1">
-        <v>-220.422000</v>
+        <v>-220.422</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>32081.099123</v>
       </c>
       <c r="L19" s="1">
-        <v>8.911416</v>
+        <v>8.9114159999999991</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.370000</v>
+        <v>1200.3699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.722000</v>
+        <v>-152.72200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>32091.571653</v>
+        <v>32091.571652999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.914325</v>
+        <v>8.9143249999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.209000</v>
+        <v>-130.209</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>32102.066999</v>
+        <v>32102.066998999999</v>
       </c>
       <c r="V19" s="1">
-        <v>8.917241</v>
+        <v>8.9172410000000006</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.630000</v>
+        <v>-108.63</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>32112.593097</v>
+        <v>32112.593097000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.920165</v>
+        <v>8.9201650000000008</v>
       </c>
       <c r="AB19" s="1">
-        <v>1223.600000</v>
+        <v>1223.5999999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.237800</v>
+        <v>-91.237799999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>32123.404891</v>
+        <v>32123.404890999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.923168</v>
+        <v>8.9231680000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>1228.020000</v>
+        <v>1228.02</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.516500</v>
+        <v>-86.516499999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>32133.626472</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.926007</v>
+        <v>8.9260070000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.662200</v>
+        <v>-89.662199999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>32144.504736</v>
+        <v>32144.504735999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.929029</v>
+        <v>8.9290289999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.527000</v>
+        <v>-101.527</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>32155.254994</v>
+        <v>32155.254993999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.932015</v>
+        <v>8.9320149999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.500000</v>
+        <v>1252.5</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.892000</v>
+        <v>-120.892</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>32165.946755</v>
+        <v>32165.946755000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.934985</v>
+        <v>8.9349849999999993</v>
       </c>
       <c r="BA19" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.487000</v>
+        <v>-138.48699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>32176.576053</v>
+        <v>32176.576053000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.937938</v>
+        <v>8.9379380000000008</v>
       </c>
       <c r="BF19" s="1">
-        <v>1300.370000</v>
+        <v>1300.3699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.225000</v>
+        <v>-221.22499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>32187.486022</v>
+        <v>32187.486022000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.940968</v>
+        <v>8.9409679999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.520000</v>
+        <v>1369.52</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.717000</v>
+        <v>-359.71699999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>32198.617767</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.944060</v>
+        <v>8.9440600000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.690000</v>
+        <v>1483.69</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-585.725000</v>
+        <v>-585.72500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>32208.882475</v>
+        <v>32208.882474999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.946912</v>
+        <v>8.9469119999999993</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.270000</v>
+        <v>1615.27</v>
       </c>
       <c r="BV19" s="1">
-        <v>-841.813000</v>
+        <v>-841.81299999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>32219.690764</v>
+        <v>32219.690763999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.949914</v>
+        <v>8.9499139999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1768.410000</v>
+        <v>1768.41</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1120.420000</v>
+        <v>-1120.42</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>32232.365067</v>
+        <v>32232.365066999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.953435</v>
+        <v>8.9534350000000007</v>
       </c>
       <c r="CE19" s="1">
-        <v>2189.930000</v>
+        <v>2189.9299999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1800.580000</v>
+        <v>-1800.58</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>32060.636684</v>
+        <v>32060.636684000001</v>
       </c>
       <c r="B20" s="1">
-        <v>8.905732</v>
+        <v>8.9057320000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>1150.120000</v>
+        <v>1150.1199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.646000</v>
+        <v>-261.64600000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>32071.021408</v>
+        <v>32071.021408000001</v>
       </c>
       <c r="G20" s="1">
-        <v>8.908617</v>
+        <v>8.9086169999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.620000</v>
+        <v>1171.6199999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.621000</v>
+        <v>-219.62100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>32081.398732</v>
+        <v>32081.398732000001</v>
       </c>
       <c r="L20" s="1">
-        <v>8.911500</v>
+        <v>8.9115000000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1200.710000</v>
+        <v>1200.71</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.585000</v>
+        <v>-152.58500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>32091.921333</v>
+        <v>32091.921332999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.914423</v>
+        <v>8.9144229999999993</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.194000</v>
+        <v>-130.19399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>32102.410233</v>
+        <v>32102.410232999999</v>
       </c>
       <c r="V20" s="1">
-        <v>8.917336</v>
+        <v>8.9173360000000006</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.773000</v>
+        <v>-108.773</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>32112.940330</v>
+        <v>32112.940330000001</v>
       </c>
       <c r="AA20" s="1">
         <v>8.920261</v>
       </c>
       <c r="AB20" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.137200</v>
+        <v>-91.137200000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>32124.086898</v>
+        <v>32124.086898000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.923357</v>
+        <v>8.9233569999999993</v>
       </c>
       <c r="AG20" s="1">
-        <v>1228.000000</v>
+        <v>1228</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.481100</v>
+        <v>-86.481099999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>32134.324812</v>
+        <v>32134.324811999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.926201</v>
+        <v>8.9262010000000007</v>
       </c>
       <c r="AL20" s="1">
-        <v>1234.920000</v>
+        <v>1234.92</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.623700</v>
+        <v>-89.623699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>32144.892611</v>
+        <v>32144.892610999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.929137</v>
+        <v>8.9291370000000008</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.498000</v>
+        <v>-101.498</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>32155.641409</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.932123</v>
+        <v>8.9321230000000007</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.856000</v>
+        <v>-120.85599999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>32166.324708</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.935090</v>
+        <v>8.9350900000000006</v>
       </c>
       <c r="BA20" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.457000</v>
+        <v>-138.45699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>32177.255082</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.938126</v>
+        <v>8.9381260000000005</v>
       </c>
       <c r="BF20" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.239000</v>
+        <v>-221.239</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>32188.170005</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.941158</v>
+        <v>8.9411579999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.530000</v>
+        <v>1369.53</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.657000</v>
+        <v>-359.65699999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>32198.748184</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.944097</v>
+        <v>8.9440969999999993</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-585.804000</v>
+        <v>-585.80399999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>32209.295115</v>
+        <v>32209.295115000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.947026</v>
+        <v>8.9470259999999993</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.270000</v>
+        <v>1615.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-841.630000</v>
+        <v>-841.63</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>32220.140635</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.950039</v>
+        <v>8.9500390000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1768.430000</v>
+        <v>1768.43</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1120.590000</v>
+        <v>-1120.5899999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>32232.881866</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.953578</v>
+        <v>8.9535780000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>2189.890000</v>
+        <v>2189.89</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1798.890000</v>
+        <v>-1798.89</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>32060.903517</v>
+        <v>32060.903516999999</v>
       </c>
       <c r="B21" s="1">
-        <v>8.905807</v>
+        <v>8.9058069999999994</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.230000</v>
+        <v>1150.23</v>
       </c>
       <c r="D21" s="1">
-        <v>-262.081000</v>
+        <v>-262.08100000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>32071.284785</v>
       </c>
       <c r="G21" s="1">
-        <v>8.908690</v>
+        <v>8.90869</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.540000</v>
+        <v>1172.54</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.549000</v>
+        <v>-219.54900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>32081.741060</v>
+        <v>32081.74106</v>
       </c>
       <c r="L21" s="1">
-        <v>8.911595</v>
+        <v>8.9115950000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1200.510000</v>
+        <v>1200.51</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.665000</v>
+        <v>-152.66499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>32092.268069</v>
+        <v>32092.268069000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.914519</v>
+        <v>8.9145190000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.134000</v>
+        <v>-130.13399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>32102.752994</v>
+        <v>32102.752993999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.917431</v>
+        <v>8.9174310000000006</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.000000</v>
+        <v>1216</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.745000</v>
+        <v>-108.745</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>32113.638168</v>
+        <v>32113.638168000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.920455</v>
+        <v>8.9204550000000005</v>
       </c>
       <c r="AB21" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.178100</v>
+        <v>-91.178100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>32124.434090</v>
+        <v>32124.434089999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.923454</v>
+        <v>8.9234539999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>1228.000000</v>
+        <v>1228</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.510000</v>
+        <v>-86.51</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>32134.671548</v>
+        <v>32134.671547999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.926298</v>
+        <v>8.9262979999999992</v>
       </c>
       <c r="AL21" s="1">
-        <v>1234.940000</v>
+        <v>1234.94</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.640600</v>
+        <v>-89.640600000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>32145.251183</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.929236</v>
+        <v>8.9292359999999995</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1242.690000</v>
+        <v>1242.69</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.527000</v>
+        <v>-101.527</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>32156.318416</v>
+        <v>32156.318415999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.932311</v>
+        <v>8.9323110000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.893000</v>
+        <v>-120.893</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>32167.000031</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.935278</v>
+        <v>8.9352780000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.471000</v>
+        <v>-138.471</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>32177.688548</v>
+        <v>32177.688547999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.938247</v>
+        <v>8.9382470000000005</v>
       </c>
       <c r="BF21" s="1">
-        <v>1300.400000</v>
+        <v>1300.4000000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.222000</v>
+        <v>-221.22200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>32188.606485</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.941280</v>
+        <v>8.9412800000000008</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.560000</v>
+        <v>1369.56</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.661000</v>
+        <v>-359.661</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>32199.157415</v>
+        <v>32199.157415000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.944210</v>
+        <v>8.94421</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.700000</v>
+        <v>1483.7</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-585.721000</v>
+        <v>-585.721</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>32209.723658</v>
+        <v>32209.723657999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.947145</v>
+        <v>8.9471450000000008</v>
       </c>
       <c r="BU21" s="1">
-        <v>1615.420000</v>
+        <v>1615.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-841.564000</v>
+        <v>-841.56399999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>32220.570170</v>
+        <v>32220.570169999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.950158</v>
+        <v>8.9501580000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1768.530000</v>
+        <v>1768.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1120.510000</v>
+        <v>-1120.51</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>32233.403659</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.953723</v>
+        <v>8.9537230000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2188.120000</v>
+        <v>2188.12</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1799.030000</v>
+        <v>-1799.03</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>32061.246749</v>
+        <v>32061.246749000002</v>
       </c>
       <c r="B22" s="1">
-        <v>8.905902</v>
+        <v>8.9059019999999993</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.400000</v>
+        <v>1150.4000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.815000</v>
+        <v>-261.815</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>32071.630991</v>
+        <v>32071.630991000002</v>
       </c>
       <c r="G22" s="1">
-        <v>8.908786</v>
+        <v>8.9087859999999992</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.760000</v>
+        <v>1172.76</v>
       </c>
       <c r="I22" s="1">
-        <v>-220.084000</v>
+        <v>-220.084</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>32082.089633</v>
       </c>
       <c r="L22" s="1">
-        <v>8.911692</v>
+        <v>8.9116920000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.590000</v>
+        <v>1200.5899999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.718000</v>
+        <v>-152.71799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>32092.964915</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.914712</v>
+        <v>8.9147119999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.098000</v>
+        <v>-130.09800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>32103.438999</v>
+        <v>32103.438999000002</v>
       </c>
       <c r="V22" s="1">
-        <v>8.917622</v>
+        <v>8.9176219999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.020000</v>
+        <v>1216.02</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.790000</v>
+        <v>-108.79</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>32113.983413</v>
+        <v>32113.983413000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.920551</v>
+        <v>8.9205509999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.230000</v>
+        <v>-91.23</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>32124.777321</v>
+        <v>32124.777321000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.923549</v>
+        <v>8.9235489999999995</v>
       </c>
       <c r="AG22" s="1">
-        <v>1228.060000</v>
+        <v>1228.06</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.532900</v>
+        <v>-86.532899999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>32135.018722</v>
+        <v>32135.018722000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.926394</v>
+        <v>8.9263940000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1234.960000</v>
+        <v>1234.96</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.661200</v>
+        <v>-89.661199999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>32145.909374</v>
+        <v>32145.909373999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.929419</v>
+        <v>8.9294189999999993</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1242.690000</v>
+        <v>1242.69</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.521000</v>
+        <v>-101.521</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>32156.769775</v>
+        <v>32156.769775000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.932436</v>
+        <v>8.9324359999999992</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.510000</v>
+        <v>1252.51</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.894000</v>
+        <v>-120.89400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>32167.408961</v>
+        <v>32167.408961000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.935391</v>
+        <v>8.9353909999999992</v>
       </c>
       <c r="BA22" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.490000</v>
+        <v>-138.49</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>32178.051619</v>
+        <v>32178.051619000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.938348</v>
+        <v>8.9383479999999995</v>
       </c>
       <c r="BF22" s="1">
-        <v>1300.380000</v>
+        <v>1300.3800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.245000</v>
+        <v>-221.245</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>32188.982491</v>
+        <v>32188.982490999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.941384</v>
+        <v>8.9413839999999993</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.510000</v>
+        <v>1369.51</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.710000</v>
+        <v>-359.71</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>32199.552694</v>
+        <v>32199.552694000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.944320</v>
+        <v>8.9443199999999994</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.740000</v>
+        <v>1483.74</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-585.790000</v>
+        <v>-585.79</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>32210.154680</v>
+        <v>32210.15468</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.947265</v>
+        <v>8.9472649999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1615.290000</v>
+        <v>1615.29</v>
       </c>
       <c r="BV22" s="1">
-        <v>-841.394000</v>
+        <v>-841.39400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>32220.998218</v>
+        <v>32220.998218000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.950277</v>
+        <v>8.9502769999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1768.390000</v>
+        <v>1768.39</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1120.580000</v>
+        <v>-1120.58</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>32233.922969</v>
+        <v>32233.922968999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.953867</v>
+        <v>8.9538670000000007</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.590000</v>
+        <v>2188.59</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1798.450000</v>
+        <v>-1798.45</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>32061.584033</v>
+        <v>32061.584032999999</v>
       </c>
       <c r="B23" s="1">
         <v>8.905996</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.430000</v>
+        <v>1150.43</v>
       </c>
       <c r="D23" s="1">
-        <v>-262.228000</v>
+        <v>-262.22800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>32072.234622</v>
       </c>
       <c r="G23" s="1">
-        <v>8.908954</v>
+        <v>8.9089539999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>1172.770000</v>
+        <v>1172.77</v>
       </c>
       <c r="I23" s="1">
-        <v>-220.134000</v>
+        <v>-220.13399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>32082.781584</v>
       </c>
       <c r="L23" s="1">
-        <v>8.911884</v>
+        <v>8.9118840000000006</v>
       </c>
       <c r="M23" s="1">
-        <v>1200.700000</v>
+        <v>1200.7</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.796000</v>
+        <v>-152.79599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>32093.313139</v>
+        <v>32093.313139000002</v>
       </c>
       <c r="Q23" s="1">
         <v>8.914809</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.127000</v>
+        <v>-130.12700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>32103.785637</v>
+        <v>32103.785637000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.917718</v>
+        <v>8.9177180000000007</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.779000</v>
+        <v>-108.779</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>32114.333096</v>
+        <v>32114.333095999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.920648</v>
+        <v>8.9206479999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.200600</v>
+        <v>-91.200599999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>32125.431049</v>
+        <v>32125.431048999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.923731</v>
+        <v>8.9237310000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1227.970000</v>
+        <v>1227.97</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.517100</v>
+        <v>-86.517099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>32135.684347</v>
+        <v>32135.684346999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.926579</v>
+        <v>8.9265790000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1234.950000</v>
+        <v>1234.95</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.656900</v>
+        <v>-89.656899999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>32146.360734</v>
+        <v>32146.360734000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.929545</v>
+        <v>8.9295449999999992</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.522000</v>
+        <v>-101.52200000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>32157.131888</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.932537</v>
+        <v>8.9325369999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.889000</v>
+        <v>-120.889</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>32167.783973</v>
+        <v>32167.783973000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.935496</v>
+        <v>8.9354960000000005</v>
       </c>
       <c r="BA23" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.464000</v>
+        <v>-138.464</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>32178.408738</v>
+        <v>32178.408737999998</v>
       </c>
       <c r="BE23" s="1">
         <v>8.938447</v>
       </c>
       <c r="BF23" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.221000</v>
+        <v>-221.221</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>32189.423893</v>
+        <v>32189.423892999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.941507</v>
+        <v>8.9415069999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.530000</v>
+        <v>1369.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.660000</v>
+        <v>-359.66</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>32199.975781</v>
+        <v>32199.975781000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.944438</v>
+        <v>8.9444379999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.700000</v>
+        <v>1483.7</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-585.816000</v>
+        <v>-585.81600000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>32210.551977</v>
+        <v>32210.551976999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.947376</v>
+        <v>8.9473760000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1615.390000</v>
+        <v>1615.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-841.324000</v>
+        <v>-841.32399999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>32221.414361</v>
+        <v>32221.414360999999</v>
       </c>
       <c r="BY23" s="1">
         <v>8.950393</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1768.690000</v>
+        <v>1768.69</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1120.550000</v>
+        <v>-1120.55</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>32234.474520</v>
+        <v>32234.47452</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.954021</v>
+        <v>8.9540209999999991</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.920000</v>
+        <v>2189.92</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1798.570000</v>
+        <v>-1798.57</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>32062.268012</v>
       </c>
       <c r="B24" s="1">
-        <v>8.906186</v>
+        <v>8.9061859999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.170000</v>
+        <v>1150.17</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.670000</v>
+        <v>-261.67</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>32072.665184</v>
+        <v>32072.665184000001</v>
       </c>
       <c r="G24" s="1">
-        <v>8.909074</v>
+        <v>8.9090740000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.320000</v>
+        <v>1173.32</v>
       </c>
       <c r="I24" s="1">
-        <v>-220.289000</v>
+        <v>-220.28899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>32083.127762</v>
       </c>
       <c r="L24" s="1">
-        <v>8.911980</v>
+        <v>8.9119799999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.633000</v>
+        <v>-152.63300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>32093.659314</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.914905</v>
+        <v>8.9149049999999992</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.158000</v>
+        <v>-130.15799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>32104.122917</v>
+        <v>32104.122917000001</v>
       </c>
       <c r="V24" s="1">
-        <v>8.917812</v>
+        <v>8.9178119999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.818000</v>
+        <v>-108.818</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>32114.984348</v>
+        <v>32114.984348000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.920829</v>
+        <v>8.9208289999999995</v>
       </c>
       <c r="AB24" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.320200</v>
+        <v>-91.3202</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>32125.806520</v>
+        <v>32125.806519999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.923835</v>
+        <v>8.9238350000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.526800</v>
+        <v>-86.526799999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>32136.064282</v>
+        <v>32136.064281999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.926685</v>
+        <v>8.9266850000000009</v>
       </c>
       <c r="AL24" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.645200</v>
+        <v>-89.645200000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>32146.720332</v>
+        <v>32146.720332000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.929645</v>
+        <v>8.9296450000000007</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.518000</v>
+        <v>-101.518</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>32157.496910</v>
+        <v>32157.496910000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.932638</v>
+        <v>8.9326380000000007</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.907000</v>
+        <v>-120.907</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>32168.163905</v>
+        <v>32168.163905000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.935601</v>
+        <v>8.9356010000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.484000</v>
+        <v>-138.48400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>32178.835335</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.938565</v>
+        <v>8.9385650000000005</v>
       </c>
       <c r="BF24" s="1">
-        <v>1300.350000</v>
+        <v>1300.3499999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.243000</v>
+        <v>-221.24299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>32189.732440</v>
+        <v>32189.73244</v>
       </c>
       <c r="BJ24" s="1">
         <v>8.941592</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.560000</v>
+        <v>1369.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.691000</v>
+        <v>-359.69099999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>32200.371095</v>
+        <v>32200.371094999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.944548</v>
+        <v>8.9445479999999993</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.650000</v>
+        <v>1483.65</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-585.737000</v>
+        <v>-585.73699999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>32210.969642</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.947492</v>
+        <v>8.9474920000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1615.430000</v>
+        <v>1615.43</v>
       </c>
       <c r="BV24" s="1">
-        <v>-841.182000</v>
+        <v>-841.18200000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>32221.876169</v>
+        <v>32221.876168999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.950521</v>
+        <v>8.9505210000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1768.430000</v>
+        <v>1768.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1120.550000</v>
+        <v>-1120.55</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>32235.000805</v>
@@ -6375,529 +6791,530 @@
         <v>8.954167</v>
       </c>
       <c r="CE24" s="1">
-        <v>2188.020000</v>
+        <v>2188.02</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1799.000000</v>
+        <v>-1799</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>32062.611276</v>
       </c>
       <c r="B25" s="1">
-        <v>8.906281</v>
+        <v>8.9062809999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.304000</v>
+        <v>-261.30399999999997</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>32073.007390</v>
+        <v>32073.007389999999</v>
       </c>
       <c r="G25" s="1">
-        <v>8.909169</v>
+        <v>8.9091690000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.460000</v>
+        <v>1172.46</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.892000</v>
+        <v>-219.892</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>32083.473996</v>
+        <v>32083.473996000001</v>
       </c>
       <c r="L25" s="1">
-        <v>8.912076</v>
+        <v>8.9120760000000008</v>
       </c>
       <c r="M25" s="1">
-        <v>1201.040000</v>
+        <v>1201.04</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.723000</v>
+        <v>-152.72300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>32094.320977</v>
+        <v>32094.320976999999</v>
       </c>
       <c r="Q25" s="1">
         <v>8.915089</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.177000</v>
+        <v>-130.17699999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>32104.791028</v>
       </c>
       <c r="V25" s="1">
-        <v>8.917998</v>
+        <v>8.9179980000000008</v>
       </c>
       <c r="W25" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.784000</v>
+        <v>-108.78400000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>32115.379623</v>
+        <v>32115.379623000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.920939</v>
+        <v>8.9209390000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>1223.510000</v>
+        <v>1223.51</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.312300</v>
+        <v>-91.312299999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>32126.149753</v>
+        <v>32126.149753000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.923930</v>
+        <v>8.9239300000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>1227.950000</v>
+        <v>1227.95</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.507300</v>
+        <v>-86.507300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>32136.413006</v>
+        <v>32136.413005999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.926781</v>
+        <v>8.9267810000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1234.950000</v>
+        <v>1234.95</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.680600</v>
+        <v>-89.680599999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>32147.080924</v>
+        <v>32147.080924000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.929745</v>
+        <v>8.9297450000000005</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.510000</v>
+        <v>-101.51</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>32157.911108</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.932753</v>
+        <v>8.9327529999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.893000</v>
+        <v>-120.893</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>32168.589480</v>
+        <v>32168.589479999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.935719</v>
+        <v>8.9357190000000006</v>
       </c>
       <c r="BA25" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.488000</v>
+        <v>-138.488</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>32179.132445</v>
+        <v>32179.132444999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.938648</v>
+        <v>8.9386480000000006</v>
       </c>
       <c r="BF25" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.253000</v>
+        <v>-221.25299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>32190.133171</v>
+        <v>32190.133171000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.941704</v>
+        <v>8.9417039999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.480000</v>
+        <v>1369.48</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.695000</v>
+        <v>-359.69499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>32200.791737</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.944664</v>
+        <v>8.9446639999999995</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.700000</v>
+        <v>1483.7</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-585.748000</v>
+        <v>-585.74800000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>32211.382775</v>
+        <v>32211.382774999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.947606</v>
+        <v>8.9476060000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1615.570000</v>
+        <v>1615.57</v>
       </c>
       <c r="BV25" s="1">
-        <v>-841.133000</v>
+        <v>-841.13300000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>32222.530360</v>
+        <v>32222.530360000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.950703</v>
+        <v>8.9507030000000007</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1768.370000</v>
+        <v>1768.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1120.560000</v>
+        <v>-1120.56</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>32235.522599</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.954312</v>
+        <v>8.9543119999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2189.770000</v>
+        <v>2189.77</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1801.120000</v>
+        <v>-1801.12</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>32062.954506</v>
+        <v>32062.954505999998</v>
       </c>
       <c r="B26" s="1">
-        <v>8.906376</v>
+        <v>8.9063759999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.210000</v>
+        <v>1150.21</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.648000</v>
+        <v>-261.64800000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>32073.659134</v>
+        <v>32073.659134000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.909350</v>
+        <v>8.9093499999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.390000</v>
+        <v>1172.3900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.981000</v>
+        <v>-219.98099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>32084.130702</v>
+        <v>32084.130701999999</v>
       </c>
       <c r="L26" s="1">
-        <v>8.912259</v>
+        <v>8.9122590000000006</v>
       </c>
       <c r="M26" s="1">
-        <v>1200.750000</v>
+        <v>1200.75</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.584000</v>
+        <v>-152.584</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>32094.708353</v>
+        <v>32094.708353000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.915197</v>
+        <v>8.9151969999999992</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.620000</v>
+        <v>1208.6199999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.124000</v>
+        <v>-130.124</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>32105.158563</v>
+        <v>32105.158563000001</v>
       </c>
       <c r="V26" s="1">
-        <v>8.918100</v>
+        <v>8.9181000000000008</v>
       </c>
       <c r="W26" s="1">
-        <v>1215.980000</v>
+        <v>1215.98</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>32115.728837</v>
+        <v>32115.728836999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.921036</v>
+        <v>8.9210360000000009</v>
       </c>
       <c r="AB26" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.156300</v>
+        <v>-91.156300000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>32126.491991</v>
+        <v>32126.491990999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.924026</v>
+        <v>8.9240259999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>1227.970000</v>
+        <v>1227.97</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.470500</v>
+        <v>-86.470500000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>32136.764633</v>
+        <v>32136.764632999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.926879</v>
+        <v>8.9268789999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1234.930000</v>
+        <v>1234.93</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.639100</v>
+        <v>-89.639099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>32147.501647</v>
+        <v>32147.501647000001</v>
       </c>
       <c r="AP26" s="1">
         <v>8.929862</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1242.690000</v>
+        <v>1242.69</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.505000</v>
+        <v>-101.505</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>32158.225533</v>
+        <v>32158.225533000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.932840</v>
+        <v>8.9328400000000006</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.480000</v>
+        <v>1252.48</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.874000</v>
+        <v>-120.874</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>32168.881088</v>
+        <v>32168.881087999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.935800</v>
+        <v>8.9358000000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.475000</v>
+        <v>-138.47499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>32179.492993</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.938748</v>
+        <v>8.9387480000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.244000</v>
+        <v>-221.244</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>32190.507193</v>
+        <v>32190.507193000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>8.941808</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.659000</v>
+        <v>-359.65899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>32201.190981</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.944775</v>
+        <v>8.9447749999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.690000</v>
+        <v>1483.69</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-585.772000</v>
+        <v>-585.77200000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>32211.819254</v>
+        <v>32211.819254000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.947728</v>
+        <v>8.9477279999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1615.790000</v>
+        <v>1615.79</v>
       </c>
       <c r="BV26" s="1">
-        <v>-841.033000</v>
+        <v>-841.03300000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>32222.732264</v>
+        <v>32222.732263999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.950759</v>
+        <v>8.9507589999999997</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1768.520000</v>
+        <v>1768.52</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1120.560000</v>
+        <v>-1120.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>32236.060472</v>
+        <v>32236.060472000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.954461</v>
+        <v>8.9544610000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.750000</v>
+        <v>2189.75</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1798.220000</v>
+        <v>-1798.22</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>